--- a/Tables/kvu_error_codes_my.xlsx
+++ b/Tables/kvu_error_codes_my.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62663B91-907C-4D3A-B8D4-EAFD2E0D0DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94C0DB1-3342-4149-A1E4-81520CEA2C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0941886E-62DC-494F-8D3F-16A1562FE0E1}"/>
   </bookViews>
@@ -783,7 +783,7 @@
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1960,7 +1960,7 @@
       <c r="A75" s="2"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D75" s="5">
         <v>0</v>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="F75" s="12">
         <f t="shared" si="7"/>
-        <v>26630</v>
+        <v>26633</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">

--- a/Tables/kvu_error_codes_my.xlsx
+++ b/Tables/kvu_error_codes_my.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94C0DB1-3342-4149-A1E4-81520CEA2C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE67898-0102-4A9B-A4C2-0D10202FDECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0941886E-62DC-494F-8D3F-16A1562FE0E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0941886E-62DC-494F-8D3F-16A1562FE0E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="183">
   <si>
     <t>Task ID</t>
   </si>
@@ -331,6 +333,258 @@
   </si>
   <si>
     <t>Other warning</t>
+  </si>
+  <si>
+    <t>LIGHTS CONTROL   At least one lights pin error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>EEPROM   CRC</t>
+  </si>
+  <si>
+    <t>EEPROM   Hardware</t>
+  </si>
+  <si>
+    <t>EEPROM   Nullptr</t>
+  </si>
+  <si>
+    <t>EEPROM   Init timeout</t>
+  </si>
+  <si>
+    <t>EEPROM   Verification</t>
+  </si>
+  <si>
+    <t>FRONT STEERING   Offline</t>
+  </si>
+  <si>
+    <t>FRONT STEERING   Overheat</t>
+  </si>
+  <si>
+    <t>FRONT STEERING   Stator high current</t>
+  </si>
+  <si>
+    <t>FRONT STEERING   Supply voltage low</t>
+  </si>
+  <si>
+    <t>FRONT STEERING   Supply voltage high</t>
+  </si>
+  <si>
+    <t>REAR STEERING   Offline</t>
+  </si>
+  <si>
+    <t>REAR STEERING   Overheat</t>
+  </si>
+  <si>
+    <t>REAR STEERING   Stator high current</t>
+  </si>
+  <si>
+    <t>REAR STEERING   Supply voltage low</t>
+  </si>
+  <si>
+    <t>REAR STEERING   Supply voltage high</t>
+  </si>
+  <si>
+    <t>PARKING BRAKE   Pin hardware error</t>
+  </si>
+  <si>
+    <t>ABS   FL Hardware</t>
+  </si>
+  <si>
+    <t>ABS   FL Wiring</t>
+  </si>
+  <si>
+    <t>ABS   FL Warning</t>
+  </si>
+  <si>
+    <t>ABS   FL Failure</t>
+  </si>
+  <si>
+    <t>ABS   FR Hardware</t>
+  </si>
+  <si>
+    <t>ABS   FR Wiring</t>
+  </si>
+  <si>
+    <t>ABS   FR Warning</t>
+  </si>
+  <si>
+    <t>ABS   FR Failure</t>
+  </si>
+  <si>
+    <t>ABS   RL Hardware</t>
+  </si>
+  <si>
+    <t>ABS   RL Wiring</t>
+  </si>
+  <si>
+    <t>ABS   RL Warning</t>
+  </si>
+  <si>
+    <t>ABS   RL Failure</t>
+  </si>
+  <si>
+    <t>ABS   RR Hardware</t>
+  </si>
+  <si>
+    <t>ABS   RR Wiring</t>
+  </si>
+  <si>
+    <t>ABS   RR Warning</t>
+  </si>
+  <si>
+    <t>ABS   RR Failure</t>
+  </si>
+  <si>
+    <t>DISCRETE INPUTS   Red button</t>
+  </si>
+  <si>
+    <t>DISCRETE INPUTS   Antifreeze sensor</t>
+  </si>
+  <si>
+    <t>DISCRETE INPUTS   Brake fluid sensor</t>
+  </si>
+  <si>
+    <t>IOLIB ERRORS   ERROR_FATAL</t>
+  </si>
+  <si>
+    <t>IOLIB ERRORS   ERROR_NON_FATAL</t>
+  </si>
+  <si>
+    <t>IOLIB ERRORS   ERROR_FPU</t>
+  </si>
+  <si>
+    <t>IOLIB ERRORS   WARNING_CFG_FLASH</t>
+  </si>
+  <si>
+    <t>IOLIB ERRORS   WARNING_FLASH</t>
+  </si>
+  <si>
+    <t>IOLIB ERRORS   WARNING_RAM</t>
+  </si>
+  <si>
+    <t>CHARGING   CP pin error</t>
+  </si>
+  <si>
+    <t>CHARGING   PSTED pin error</t>
+  </si>
+  <si>
+    <t>CHARGING   BZU offline</t>
+  </si>
+  <si>
+    <t>CHARGING   BMS offline</t>
+  </si>
+  <si>
+    <t>CHARGING   BZU hardware  error</t>
+  </si>
+  <si>
+    <t>CHARGING   BZU overheat</t>
+  </si>
+  <si>
+    <t>CHARGING   BZU input voltage error</t>
+  </si>
+  <si>
+    <t>CHARGING   BZU communication error</t>
+  </si>
+  <si>
+    <t>HYDRAULIC BRAKES   Accumulator</t>
+  </si>
+  <si>
+    <t>HYDRAULIC BRAKES   SMC1</t>
+  </si>
+  <si>
+    <t>HYDRAULIC BRAKES   SMC2</t>
+  </si>
+  <si>
+    <t>HYDRAULIC BRAKES   Contour L</t>
+  </si>
+  <si>
+    <t>HYDRAULIC BRAKES   Contour R</t>
+  </si>
+  <si>
+    <t>HYDRAULIC BRAKES   Graceful driver</t>
+  </si>
+  <si>
+    <t>HYDRAULIC BRAKES   Non-zero startup velocity</t>
+  </si>
+  <si>
+    <t>SUSPENSION   Hardware fault</t>
+  </si>
+  <si>
+    <t>SUSPENSION   Pressure limit warning</t>
+  </si>
+  <si>
+    <t>SUSPENSION   Height timeout warning</t>
+  </si>
+  <si>
+    <t>VOLTAGE MONITORING   V24 undervoltage</t>
+  </si>
+  <si>
+    <t>VOLTAGE MONITORING   V24 overvoltage</t>
+  </si>
+  <si>
+    <t>VOLTAGE MONITORING   V12 undervoltage</t>
+  </si>
+  <si>
+    <t>VOLTAGE MONITORING   V12 overvoltage</t>
+  </si>
+  <si>
+    <t>VOLTAGE MONITORING   IOLIB_24V</t>
+  </si>
+  <si>
+    <t>VOLTAGE MONITORING   IOLIB_12V</t>
+  </si>
+  <si>
+    <t>PSTED   Offline</t>
+  </si>
+  <si>
+    <t>PSTED   Hardwsre fault</t>
+  </si>
+  <si>
+    <t>PSTED   Emergency stop</t>
+  </si>
+  <si>
+    <t>PSTED   Overheat</t>
+  </si>
+  <si>
+    <t>PSTED   Phys limits</t>
+  </si>
+  <si>
+    <t>PSTED   Contactor fault</t>
+  </si>
+  <si>
+    <t>PSTED   Software and config</t>
+  </si>
+  <si>
+    <t>PSTED   Precharge fault</t>
+  </si>
+  <si>
+    <t>PSTED   Other errors</t>
+  </si>
+  <si>
+    <t>PSTED   Contactor warning</t>
+  </si>
+  <si>
+    <t>PSTED   Overheat warning</t>
+  </si>
+  <si>
+    <t>PSTED   Sensor warning</t>
+  </si>
+  <si>
+    <t>PSTED   High voltage warning</t>
+  </si>
+  <si>
+    <t>PSTED   Other warning</t>
+  </si>
+  <si>
+    <t>POWER MANAGEMENT   Mass relay pin</t>
+  </si>
+  <si>
+    <t>POWER MANAGEMENT   BKU turnoff pin</t>
+  </si>
+  <si>
+    <t>{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', 32788: 'PSTED   Other warning', 33024: 'PSTED   Offline', 33025: 'PSTED   Hardwsre fault', 33026: 'PSTED   Emergency stop', 33027: 'PSTED   Overheat', 33028: 'PSTED   Phys limits', 33029: 'PSTED   Contactor fault', 33030: 'PSTED   Software and config', 33031: 'PSTED   Precharge fault', 33034: 'PSTED   Other errors', 35072: 'POWER MANAGEMENT   Mass relay pin', 35073: 'POWER MANAGEMENT   BKU turnoff pin'}</t>
   </si>
 </sst>
 </file>
@@ -782,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8728BAE6-8AAA-47CF-B8C3-57EA7DE5A8C9}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2617,4 +2871,2736 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC493BD-D2CA-40E6-A331-9D3540EA9EA5}">
+  <dimension ref="A1:I99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>4096</v>
+      </c>
+      <c r="E1" t="str">
+        <f>A1&amp;"   "&amp;B1</f>
+        <v>LIGHTS CONTROL   At least one lights pin error</v>
+      </c>
+      <c r="I1" t="str">
+        <f>C1&amp;": "&amp;E1</f>
+        <v>4096: LIGHTS CONTROL   At least one lights pin error</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E2" t="str">
+        <f>A2&amp;"   "&amp;B2</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>6144</v>
+      </c>
+      <c r="E3" t="str">
+        <f>A3&amp;"   "&amp;B3</f>
+        <v>EEPROM   CRC</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>6145</v>
+      </c>
+      <c r="E4" t="str">
+        <f>A4&amp;"   "&amp;B4</f>
+        <v>EEPROM   Hardware</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>6146</v>
+      </c>
+      <c r="E5" t="str">
+        <f>A5&amp;"   "&amp;B5</f>
+        <v>EEPROM   Nullptr</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>6403</v>
+      </c>
+      <c r="E6" t="str">
+        <f>A6&amp;"   "&amp;B6</f>
+        <v>EEPROM   Init timeout</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>6148</v>
+      </c>
+      <c r="E7" t="str">
+        <f>A7&amp;"   "&amp;B7</f>
+        <v>EEPROM   Verification</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E8" t="str">
+        <f>A8&amp;"   "&amp;B8</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="str">
+        <f>A9&amp;"   "&amp;B9</f>
+        <v xml:space="preserve">J1939   </v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E10" t="str">
+        <f>A10&amp;"   "&amp;B10</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>10496</v>
+      </c>
+      <c r="E11" t="str">
+        <f>A11&amp;"   "&amp;B11</f>
+        <v>FRONT STEERING   Offline</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>10243</v>
+      </c>
+      <c r="E12" t="str">
+        <f>A12&amp;"   "&amp;B12</f>
+        <v>FRONT STEERING   Overheat</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>10244</v>
+      </c>
+      <c r="E13" t="str">
+        <f>A13&amp;"   "&amp;B13</f>
+        <v>FRONT STEERING   Stator high current</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>10245</v>
+      </c>
+      <c r="E14" t="str">
+        <f>A14&amp;"   "&amp;B14</f>
+        <v>FRONT STEERING   Supply voltage low</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>10246</v>
+      </c>
+      <c r="E15" t="str">
+        <f>A15&amp;"   "&amp;B15</f>
+        <v>FRONT STEERING   Supply voltage high</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E16" t="str">
+        <f>A16&amp;"   "&amp;B16</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>12544</v>
+      </c>
+      <c r="E17" t="str">
+        <f>A17&amp;"   "&amp;B17</f>
+        <v>REAR STEERING   Offline</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>12291</v>
+      </c>
+      <c r="E18" t="str">
+        <f>A18&amp;"   "&amp;B18</f>
+        <v>REAR STEERING   Overheat</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>12292</v>
+      </c>
+      <c r="E19" t="str">
+        <f>A19&amp;"   "&amp;B19</f>
+        <v>REAR STEERING   Stator high current</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>12293</v>
+      </c>
+      <c r="E20" t="str">
+        <f>A20&amp;"   "&amp;B20</f>
+        <v>REAR STEERING   Supply voltage low</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>12294</v>
+      </c>
+      <c r="E21" t="str">
+        <f>A21&amp;"   "&amp;B21</f>
+        <v>REAR STEERING   Supply voltage high</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" t="str">
+        <f>A22&amp;"   "&amp;B22</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>14592</v>
+      </c>
+      <c r="E23" t="str">
+        <f>A23&amp;"   "&amp;B23</f>
+        <v>PARKING BRAKE   Pin hardware error</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" t="str">
+        <f>A24&amp;"   "&amp;B24</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="str">
+        <f>A25&amp;"   "&amp;B25</f>
+        <v xml:space="preserve">SYSTEM   </v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" t="str">
+        <f>A26&amp;"   "&amp;B26</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27">
+        <v>18432</v>
+      </c>
+      <c r="E27" t="str">
+        <f>A27&amp;"   "&amp;B27</f>
+        <v>ABS   FL Hardware</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>18433</v>
+      </c>
+      <c r="E28" t="str">
+        <f>A28&amp;"   "&amp;B28</f>
+        <v>ABS   FL Wiring</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>18434</v>
+      </c>
+      <c r="E29" t="str">
+        <f>A29&amp;"   "&amp;B29</f>
+        <v>ABS   FL Warning</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>18435</v>
+      </c>
+      <c r="E30" t="str">
+        <f>A30&amp;"   "&amp;B30</f>
+        <v>ABS   FL Failure</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>18436</v>
+      </c>
+      <c r="E31" t="str">
+        <f>A31&amp;"   "&amp;B31</f>
+        <v>ABS   FR Hardware</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32">
+        <v>18437</v>
+      </c>
+      <c r="E32" t="str">
+        <f>A32&amp;"   "&amp;B32</f>
+        <v>ABS   FR Wiring</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33">
+        <v>18438</v>
+      </c>
+      <c r="E33" t="str">
+        <f>A33&amp;"   "&amp;B33</f>
+        <v>ABS   FR Warning</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>18439</v>
+      </c>
+      <c r="E34" t="str">
+        <f>A34&amp;"   "&amp;B34</f>
+        <v>ABS   FR Failure</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35">
+        <v>18440</v>
+      </c>
+      <c r="E35" t="str">
+        <f>A35&amp;"   "&amp;B35</f>
+        <v>ABS   RL Hardware</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36">
+        <v>18441</v>
+      </c>
+      <c r="E36" t="str">
+        <f>A36&amp;"   "&amp;B36</f>
+        <v>ABS   RL Wiring</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37">
+        <v>18442</v>
+      </c>
+      <c r="E37" t="str">
+        <f>A37&amp;"   "&amp;B37</f>
+        <v>ABS   RL Warning</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38">
+        <v>18443</v>
+      </c>
+      <c r="E38" t="str">
+        <f>A38&amp;"   "&amp;B38</f>
+        <v>ABS   RL Failure</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39">
+        <v>18444</v>
+      </c>
+      <c r="E39" t="str">
+        <f>A39&amp;"   "&amp;B39</f>
+        <v>ABS   RR Hardware</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40">
+        <v>18445</v>
+      </c>
+      <c r="E40" t="str">
+        <f>A40&amp;"   "&amp;B40</f>
+        <v>ABS   RR Wiring</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41">
+        <v>18446</v>
+      </c>
+      <c r="E41" t="str">
+        <f>A41&amp;"   "&amp;B41</f>
+        <v>ABS   RR Warning</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42">
+        <v>18447</v>
+      </c>
+      <c r="E42" t="str">
+        <f>A42&amp;"   "&amp;B42</f>
+        <v>ABS   RR Failure</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43" t="str">
+        <f>A43&amp;"   "&amp;B43</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>20736</v>
+      </c>
+      <c r="E44" t="str">
+        <f>A44&amp;"   "&amp;B44</f>
+        <v>DISCRETE INPUTS   Red button</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>20481</v>
+      </c>
+      <c r="E45" t="str">
+        <f>A45&amp;"   "&amp;B45</f>
+        <v>DISCRETE INPUTS   Antifreeze sensor</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>20738</v>
+      </c>
+      <c r="E46" t="str">
+        <f>A46&amp;"   "&amp;B46</f>
+        <v>DISCRETE INPUTS   Brake fluid sensor</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E47" t="str">
+        <f>A47&amp;"   "&amp;B47</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <v>22784</v>
+      </c>
+      <c r="E48" t="str">
+        <f>A48&amp;"   "&amp;B48</f>
+        <v>IOLIB ERRORS   ERROR_FATAL</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>22529</v>
+      </c>
+      <c r="E49" t="str">
+        <f>A49&amp;"   "&amp;B49</f>
+        <v>IOLIB ERRORS   ERROR_NON_FATAL</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>22786</v>
+      </c>
+      <c r="E50" t="str">
+        <f>A50&amp;"   "&amp;B50</f>
+        <v>IOLIB ERRORS   ERROR_FPU</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51">
+        <v>22531</v>
+      </c>
+      <c r="E51" t="str">
+        <f>A51&amp;"   "&amp;B51</f>
+        <v>IOLIB ERRORS   WARNING_CFG_FLASH</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52">
+        <v>22532</v>
+      </c>
+      <c r="E52" t="str">
+        <f>A52&amp;"   "&amp;B52</f>
+        <v>IOLIB ERRORS   WARNING_FLASH</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53">
+        <v>22533</v>
+      </c>
+      <c r="E53" t="str">
+        <f>A53&amp;"   "&amp;B53</f>
+        <v>IOLIB ERRORS   WARNING_RAM</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E54" t="str">
+        <f>A54&amp;"   "&amp;B54</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55">
+        <v>24832</v>
+      </c>
+      <c r="E55" t="str">
+        <f>A55&amp;"   "&amp;B55</f>
+        <v>CHARGING   CP pin error</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56">
+        <v>24833</v>
+      </c>
+      <c r="E56" t="str">
+        <f>A56&amp;"   "&amp;B56</f>
+        <v>CHARGING   PSTED pin error</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57">
+        <v>24834</v>
+      </c>
+      <c r="E57" t="str">
+        <f>A57&amp;"   "&amp;B57</f>
+        <v>CHARGING   BZU offline</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58">
+        <v>24579</v>
+      </c>
+      <c r="E58" t="str">
+        <f>A58&amp;"   "&amp;B58</f>
+        <v>CHARGING   BMS offline</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>24580</v>
+      </c>
+      <c r="E59" t="str">
+        <f>A59&amp;"   "&amp;B59</f>
+        <v>CHARGING   BZU hardware  error</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60">
+        <v>24581</v>
+      </c>
+      <c r="E60" t="str">
+        <f>A60&amp;"   "&amp;B60</f>
+        <v>CHARGING   BZU overheat</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61">
+        <v>24582</v>
+      </c>
+      <c r="E61" t="str">
+        <f>A61&amp;"   "&amp;B61</f>
+        <v>CHARGING   BZU input voltage error</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62">
+        <v>24583</v>
+      </c>
+      <c r="E62" t="str">
+        <f>A62&amp;"   "&amp;B62</f>
+        <v>CHARGING   BZU communication error</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E63" t="str">
+        <f>A63&amp;"   "&amp;B63</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64">
+        <v>26880</v>
+      </c>
+      <c r="E64" t="str">
+        <f>A64&amp;"   "&amp;B64</f>
+        <v>HYDRAULIC BRAKES   Accumulator</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65">
+        <v>26881</v>
+      </c>
+      <c r="E65" t="str">
+        <f>A65&amp;"   "&amp;B65</f>
+        <v>HYDRAULIC BRAKES   SMC1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66">
+        <v>26882</v>
+      </c>
+      <c r="E66" t="str">
+        <f>A66&amp;"   "&amp;B66</f>
+        <v>HYDRAULIC BRAKES   SMC2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67">
+        <v>26883</v>
+      </c>
+      <c r="E67" t="str">
+        <f>A67&amp;"   "&amp;B67</f>
+        <v>HYDRAULIC BRAKES   Contour L</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68">
+        <v>26884</v>
+      </c>
+      <c r="E68" t="str">
+        <f>A68&amp;"   "&amp;B68</f>
+        <v>HYDRAULIC BRAKES   Contour R</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69">
+        <v>26629</v>
+      </c>
+      <c r="E69" t="str">
+        <f>A69&amp;"   "&amp;B69</f>
+        <v>HYDRAULIC BRAKES   Graceful driver</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70">
+        <v>26633</v>
+      </c>
+      <c r="E70" t="str">
+        <f>A70&amp;"   "&amp;B70</f>
+        <v>HYDRAULIC BRAKES   Non-zero startup velocity</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E71" t="str">
+        <f>A71&amp;"   "&amp;B71</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72">
+        <v>28672</v>
+      </c>
+      <c r="E72" t="str">
+        <f>A72&amp;"   "&amp;B72</f>
+        <v>SUSPENSION   Hardware fault</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73">
+        <v>28673</v>
+      </c>
+      <c r="E73" t="str">
+        <f>A73&amp;"   "&amp;B73</f>
+        <v>SUSPENSION   Pressure limit warning</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74">
+        <v>28674</v>
+      </c>
+      <c r="E74" t="str">
+        <f>A74&amp;"   "&amp;B74</f>
+        <v>SUSPENSION   Height timeout warning</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E75" t="str">
+        <f>A75&amp;"   "&amp;B75</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76">
+        <v>30720</v>
+      </c>
+      <c r="E76" t="str">
+        <f>A76&amp;"   "&amp;B76</f>
+        <v>VOLTAGE MONITORING   V24 undervoltage</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77">
+        <v>30721</v>
+      </c>
+      <c r="E77" t="str">
+        <f>A77&amp;"   "&amp;B77</f>
+        <v>VOLTAGE MONITORING   V24 overvoltage</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78">
+        <v>30722</v>
+      </c>
+      <c r="E78" t="str">
+        <f>A78&amp;"   "&amp;B78</f>
+        <v>VOLTAGE MONITORING   V12 undervoltage</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79">
+        <v>30723</v>
+      </c>
+      <c r="E79" t="str">
+        <f>A79&amp;"   "&amp;B79</f>
+        <v>VOLTAGE MONITORING   V12 overvoltage</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80">
+        <v>30724</v>
+      </c>
+      <c r="E80" t="str">
+        <f>A80&amp;"   "&amp;B80</f>
+        <v>VOLTAGE MONITORING   IOLIB_24V</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81">
+        <v>30725</v>
+      </c>
+      <c r="E81" t="str">
+        <f>A81&amp;"   "&amp;B81</f>
+        <v>VOLTAGE MONITORING   IOLIB_12V</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E82" t="str">
+        <f>A82&amp;"   "&amp;B82</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83">
+        <v>33024</v>
+      </c>
+      <c r="E83" t="str">
+        <f>A83&amp;"   "&amp;B83</f>
+        <v>PSTED   Offline</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84">
+        <v>33025</v>
+      </c>
+      <c r="E84" t="str">
+        <f>A84&amp;"   "&amp;B84</f>
+        <v>PSTED   Hardwsre fault</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85">
+        <v>33026</v>
+      </c>
+      <c r="E85" t="str">
+        <f>A85&amp;"   "&amp;B85</f>
+        <v>PSTED   Emergency stop</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>33027</v>
+      </c>
+      <c r="E86" t="str">
+        <f>A86&amp;"   "&amp;B86</f>
+        <v>PSTED   Overheat</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87">
+        <v>33028</v>
+      </c>
+      <c r="E87" t="str">
+        <f>A87&amp;"   "&amp;B87</f>
+        <v>PSTED   Phys limits</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>33029</v>
+      </c>
+      <c r="E88" t="str">
+        <f>A88&amp;"   "&amp;B88</f>
+        <v>PSTED   Contactor fault</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89">
+        <v>33030</v>
+      </c>
+      <c r="E89" t="str">
+        <f>A89&amp;"   "&amp;B89</f>
+        <v>PSTED   Software and config</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90">
+        <v>33031</v>
+      </c>
+      <c r="E90" t="str">
+        <f>A90&amp;"   "&amp;B90</f>
+        <v>PSTED   Precharge fault</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91">
+        <v>33034</v>
+      </c>
+      <c r="E91" t="str">
+        <f>A91&amp;"   "&amp;B91</f>
+        <v>PSTED   Other errors</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92">
+        <v>32784</v>
+      </c>
+      <c r="E92" t="str">
+        <f>A92&amp;"   "&amp;B92</f>
+        <v>PSTED   Contactor warning</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93">
+        <v>32785</v>
+      </c>
+      <c r="E93" t="str">
+        <f>A93&amp;"   "&amp;B93</f>
+        <v>PSTED   Overheat warning</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94">
+        <v>32786</v>
+      </c>
+      <c r="E94" t="str">
+        <f>A94&amp;"   "&amp;B94</f>
+        <v>PSTED   Sensor warning</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95">
+        <v>32787</v>
+      </c>
+      <c r="E95" t="str">
+        <f>A95&amp;"   "&amp;B95</f>
+        <v>PSTED   High voltage warning</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96">
+        <v>32788</v>
+      </c>
+      <c r="E96" t="str">
+        <f>A96&amp;"   "&amp;B96</f>
+        <v>PSTED   Other warning</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E97" t="str">
+        <f>A97&amp;"   "&amp;B97</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>35072</v>
+      </c>
+      <c r="E98" t="str">
+        <f>A98&amp;"   "&amp;B98</f>
+        <v>POWER MANAGEMENT   Mass relay pin</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>35073</v>
+      </c>
+      <c r="E99" t="str">
+        <f>A99&amp;"   "&amp;B99</f>
+        <v>POWER MANAGEMENT   BKU turnoff pin</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9049B726-E88C-4625-BAC0-EC0AE4B589A0}">
+  <dimension ref="A1:M99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>4096</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="str">
+        <f>A1&amp;": '"&amp;B1&amp;"', "</f>
+        <v xml:space="preserve">4096: 'LIGHTS CONTROL   At least one lights pin error', </v>
+      </c>
+      <c r="M1" t="str">
+        <f>"{"&amp;G1</f>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', </v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>6144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G65" si="0">A2&amp;": '"&amp;B2&amp;"', "</f>
+        <v xml:space="preserve">6144: 'EEPROM   CRC', </v>
+      </c>
+      <c r="M2" t="str">
+        <f>M1&amp;G2</f>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', </v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">6145: 'EEPROM   Hardware', </v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M66" si="1">M2&amp;G3</f>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', </v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">6146: 'EEPROM   Nullptr', </v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', </v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">6148: 'EEPROM   Verification', </v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', </v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6403</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">6403: 'EEPROM   Init timeout', </v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', </v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">10243: 'FRONT STEERING   Overheat', </v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', </v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10244</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">10244: 'FRONT STEERING   Stator high current', </v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', </v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10245</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">10245: 'FRONT STEERING   Supply voltage low', </v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', </v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10246</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">10246: 'FRONT STEERING   Supply voltage high', </v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', </v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10496</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">10496: 'FRONT STEERING   Offline', </v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', </v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12291</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">12291: 'REAR STEERING   Overheat', </v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', </v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12292</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">12292: 'REAR STEERING   Stator high current', </v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', </v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12293</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">12293: 'REAR STEERING   Supply voltage low', </v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', </v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12294</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">12294: 'REAR STEERING   Supply voltage high', </v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', </v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12544</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">12544: 'REAR STEERING   Offline', </v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', </v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14592</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">14592: 'PARKING BRAKE   Pin hardware error', </v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', </v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18432</v>
+      </c>
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18432: 'ABS   FL Hardware', </v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', </v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18433</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18433: 'ABS   FL Wiring', </v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', </v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18434</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18434: 'ABS   FL Warning', </v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', </v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18435</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18435: 'ABS   FL Failure', </v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', </v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>18436</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18436: 'ABS   FR Hardware', </v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', </v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>18437</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18437: 'ABS   FR Wiring', </v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', </v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>18438</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18438: 'ABS   FR Warning', </v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', </v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>18439</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18439: 'ABS   FR Failure', </v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', </v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>18440</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18440: 'ABS   RL Hardware', </v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', </v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>18441</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18441: 'ABS   RL Wiring', </v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', </v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>18442</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18442: 'ABS   RL Warning', </v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', </v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>18443</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18443: 'ABS   RL Failure', </v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', </v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>18444</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18444: 'ABS   RR Hardware', </v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', </v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>18445</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18445: 'ABS   RR Wiring', </v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', </v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>18446</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18446: 'ABS   RR Warning', </v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', </v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>18447</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18447: 'ABS   RR Failure', </v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', </v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>20481</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">20481: 'DISCRETE INPUTS   Antifreeze sensor', </v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', </v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>20736</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">20736: 'DISCRETE INPUTS   Red button', </v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', </v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>20738</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">20738: 'DISCRETE INPUTS   Brake fluid sensor', </v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', </v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>22529</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">22529: 'IOLIB ERRORS   ERROR_NON_FATAL', </v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', </v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>22531</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', </v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', </v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>22532</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">22532: 'IOLIB ERRORS   WARNING_FLASH', </v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', </v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>22533</v>
+      </c>
+      <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">22533: 'IOLIB ERRORS   WARNING_RAM', </v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', </v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>22784</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">22784: 'IOLIB ERRORS   ERROR_FATAL', </v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', </v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>22786</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">22786: 'IOLIB ERRORS   ERROR_FPU', </v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', </v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>24579</v>
+      </c>
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">24579: 'CHARGING   BMS offline', </v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', </v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>24580</v>
+      </c>
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">24580: 'CHARGING   BZU hardware  error', </v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', </v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>24581</v>
+      </c>
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">24581: 'CHARGING   BZU overheat', </v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', </v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>24582</v>
+      </c>
+      <c r="B46" t="s">
+        <v>148</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">24582: 'CHARGING   BZU input voltage error', </v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', </v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>24583</v>
+      </c>
+      <c r="B47" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">24583: 'CHARGING   BZU communication error', </v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', </v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>24832</v>
+      </c>
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">24832: 'CHARGING   CP pin error', </v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', </v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>24833</v>
+      </c>
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">24833: 'CHARGING   PSTED pin error', </v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', </v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>24834</v>
+      </c>
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">24834: 'CHARGING   BZU offline', </v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', </v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>26629</v>
+      </c>
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">26629: 'HYDRAULIC BRAKES   Graceful driver', </v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', </v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>26633</v>
+      </c>
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', </v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', </v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>26880</v>
+      </c>
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">26880: 'HYDRAULIC BRAKES   Accumulator', </v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', </v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>26881</v>
+      </c>
+      <c r="B54" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">26881: 'HYDRAULIC BRAKES   SMC1', </v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', </v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>26882</v>
+      </c>
+      <c r="B55" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">26882: 'HYDRAULIC BRAKES   SMC2', </v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', </v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>26883</v>
+      </c>
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">26883: 'HYDRAULIC BRAKES   Contour L', </v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', </v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>26884</v>
+      </c>
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">26884: 'HYDRAULIC BRAKES   Contour R', </v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', </v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>28672</v>
+      </c>
+      <c r="B58" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">28672: 'SUSPENSION   Hardware fault', </v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', </v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>28673</v>
+      </c>
+      <c r="B59" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">28673: 'SUSPENSION   Pressure limit warning', </v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', </v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>28674</v>
+      </c>
+      <c r="B60" t="s">
+        <v>159</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">28674: 'SUSPENSION   Height timeout warning', </v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', </v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>30720</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">30720: 'VOLTAGE MONITORING   V24 undervoltage', </v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', </v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>30721</v>
+      </c>
+      <c r="B62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">30721: 'VOLTAGE MONITORING   V24 overvoltage', </v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', </v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>30722</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">30722: 'VOLTAGE MONITORING   V12 undervoltage', </v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', </v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>30723</v>
+      </c>
+      <c r="B64" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">30723: 'VOLTAGE MONITORING   V12 overvoltage', </v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', </v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>30724</v>
+      </c>
+      <c r="B65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">30724: 'VOLTAGE MONITORING   IOLIB_24V', </v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', </v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>30725</v>
+      </c>
+      <c r="B66" t="s">
+        <v>165</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G82" si="2">A66&amp;": '"&amp;B66&amp;"', "</f>
+        <v xml:space="preserve">30725: 'VOLTAGE MONITORING   IOLIB_12V', </v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', </v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>32784</v>
+      </c>
+      <c r="B67" t="s">
+        <v>175</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">32784: 'PSTED   Contactor warning', </v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" ref="M67:M82" si="3">M66&amp;G67</f>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', </v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>32785</v>
+      </c>
+      <c r="B68" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">32785: 'PSTED   Overheat warning', </v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', </v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>32786</v>
+      </c>
+      <c r="B69" t="s">
+        <v>177</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">32786: 'PSTED   Sensor warning', </v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', </v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>32787</v>
+      </c>
+      <c r="B70" t="s">
+        <v>178</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">32787: 'PSTED   High voltage warning', </v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', </v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>32788</v>
+      </c>
+      <c r="B71" t="s">
+        <v>179</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">32788: 'PSTED   Other warning', </v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', 32788: 'PSTED   Other warning', </v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>33024</v>
+      </c>
+      <c r="B72" t="s">
+        <v>166</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">33024: 'PSTED   Offline', </v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', 32788: 'PSTED   Other warning', 33024: 'PSTED   Offline', </v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>33025</v>
+      </c>
+      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">33025: 'PSTED   Hardwsre fault', </v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', 32788: 'PSTED   Other warning', 33024: 'PSTED   Offline', 33025: 'PSTED   Hardwsre fault', </v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>33026</v>
+      </c>
+      <c r="B74" t="s">
+        <v>168</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">33026: 'PSTED   Emergency stop', </v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', 32788: 'PSTED   Other warning', 33024: 'PSTED   Offline', 33025: 'PSTED   Hardwsre fault', 33026: 'PSTED   Emergency stop', </v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>33027</v>
+      </c>
+      <c r="B75" t="s">
+        <v>169</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">33027: 'PSTED   Overheat', </v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', 32788: 'PSTED   Other warning', 33024: 'PSTED   Offline', 33025: 'PSTED   Hardwsre fault', 33026: 'PSTED   Emergency stop', 33027: 'PSTED   Overheat', </v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>33028</v>
+      </c>
+      <c r="B76" t="s">
+        <v>170</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">33028: 'PSTED   Phys limits', </v>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', 32788: 'PSTED   Other warning', 33024: 'PSTED   Offline', 33025: 'PSTED   Hardwsre fault', 33026: 'PSTED   Emergency stop', 33027: 'PSTED   Overheat', 33028: 'PSTED   Phys limits', </v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>33029</v>
+      </c>
+      <c r="B77" t="s">
+        <v>171</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">33029: 'PSTED   Contactor fault', </v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', 32788: 'PSTED   Other warning', 33024: 'PSTED   Offline', 33025: 'PSTED   Hardwsre fault', 33026: 'PSTED   Emergency stop', 33027: 'PSTED   Overheat', 33028: 'PSTED   Phys limits', 33029: 'PSTED   Contactor fault', </v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>33030</v>
+      </c>
+      <c r="B78" t="s">
+        <v>172</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">33030: 'PSTED   Software and config', </v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', 32788: 'PSTED   Other warning', 33024: 'PSTED   Offline', 33025: 'PSTED   Hardwsre fault', 33026: 'PSTED   Emergency stop', 33027: 'PSTED   Overheat', 33028: 'PSTED   Phys limits', 33029: 'PSTED   Contactor fault', 33030: 'PSTED   Software and config', </v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>33031</v>
+      </c>
+      <c r="B79" t="s">
+        <v>173</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">33031: 'PSTED   Precharge fault', </v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', 32788: 'PSTED   Other warning', 33024: 'PSTED   Offline', 33025: 'PSTED   Hardwsre fault', 33026: 'PSTED   Emergency stop', 33027: 'PSTED   Overheat', 33028: 'PSTED   Phys limits', 33029: 'PSTED   Contactor fault', 33030: 'PSTED   Software and config', 33031: 'PSTED   Precharge fault', </v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>33034</v>
+      </c>
+      <c r="B80" t="s">
+        <v>174</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">33034: 'PSTED   Other errors', </v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', 32788: 'PSTED   Other warning', 33024: 'PSTED   Offline', 33025: 'PSTED   Hardwsre fault', 33026: 'PSTED   Emergency stop', 33027: 'PSTED   Overheat', 33028: 'PSTED   Phys limits', 33029: 'PSTED   Contactor fault', 33030: 'PSTED   Software and config', 33031: 'PSTED   Precharge fault', 33034: 'PSTED   Other errors', </v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>35072</v>
+      </c>
+      <c r="B81" t="s">
+        <v>180</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">35072: 'POWER MANAGEMENT   Mass relay pin', </v>
+      </c>
+      <c r="M81" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', 32788: 'PSTED   Other warning', 33024: 'PSTED   Offline', 33025: 'PSTED   Hardwsre fault', 33026: 'PSTED   Emergency stop', 33027: 'PSTED   Overheat', 33028: 'PSTED   Phys limits', 33029: 'PSTED   Contactor fault', 33030: 'PSTED   Software and config', 33031: 'PSTED   Precharge fault', 33034: 'PSTED   Other errors', 35072: 'POWER MANAGEMENT   Mass relay pin', </v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>35073</v>
+      </c>
+      <c r="B82" t="s">
+        <v>181</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">35073: 'POWER MANAGEMENT   BKU turnoff pin', </v>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">{4096: 'LIGHTS CONTROL   At least one lights pin error', 6144: 'EEPROM   CRC', 6145: 'EEPROM   Hardware', 6146: 'EEPROM   Nullptr', 6148: 'EEPROM   Verification', 6403: 'EEPROM   Init timeout', 10243: 'FRONT STEERING   Overheat', 10244: 'FRONT STEERING   Stator high current', 10245: 'FRONT STEERING   Supply voltage low', 10246: 'FRONT STEERING   Supply voltage high', 10496: 'FRONT STEERING   Offline', 12291: 'REAR STEERING   Overheat', 12292: 'REAR STEERING   Stator high current', 12293: 'REAR STEERING   Supply voltage low', 12294: 'REAR STEERING   Supply voltage high', 12544: 'REAR STEERING   Offline', 14592: 'PARKING BRAKE   Pin hardware error', 18432: 'ABS   FL Hardware', 18433: 'ABS   FL Wiring', 18434: 'ABS   FL Warning', 18435: 'ABS   FL Failure', 18436: 'ABS   FR Hardware', 18437: 'ABS   FR Wiring', 18438: 'ABS   FR Warning', 18439: 'ABS   FR Failure', 18440: 'ABS   RL Hardware', 18441: 'ABS   RL Wiring', 18442: 'ABS   RL Warning', 18443: 'ABS   RL Failure', 18444: 'ABS   RR Hardware', 18445: 'ABS   RR Wiring', 18446: 'ABS   RR Warning', 18447: 'ABS   RR Failure', 20481: 'DISCRETE INPUTS   Antifreeze sensor', 20736: 'DISCRETE INPUTS   Red button', 20738: 'DISCRETE INPUTS   Brake fluid sensor', 22529: 'IOLIB ERRORS   ERROR_NON_FATAL', 22531: 'IOLIB ERRORS   WARNING_CFG_FLASH', 22532: 'IOLIB ERRORS   WARNING_FLASH', 22533: 'IOLIB ERRORS   WARNING_RAM', 22784: 'IOLIB ERRORS   ERROR_FATAL', 22786: 'IOLIB ERRORS   ERROR_FPU', 24579: 'CHARGING   BMS offline', 24580: 'CHARGING   BZU hardware  error', 24581: 'CHARGING   BZU overheat', 24582: 'CHARGING   BZU input voltage error', 24583: 'CHARGING   BZU communication error', 24832: 'CHARGING   CP pin error', 24833: 'CHARGING   PSTED pin error', 24834: 'CHARGING   BZU offline', 26629: 'HYDRAULIC BRAKES   Graceful driver', 26633: 'HYDRAULIC BRAKES   Non-zero startup velocity', 26880: 'HYDRAULIC BRAKES   Accumulator', 26881: 'HYDRAULIC BRAKES   SMC1', 26882: 'HYDRAULIC BRAKES   SMC2', 26883: 'HYDRAULIC BRAKES   Contour L', 26884: 'HYDRAULIC BRAKES   Contour R', 28672: 'SUSPENSION   Hardware fault', 28673: 'SUSPENSION   Pressure limit warning', 28674: 'SUSPENSION   Height timeout warning', 30720: 'VOLTAGE MONITORING   V24 undervoltage', 30721: 'VOLTAGE MONITORING   V24 overvoltage', 30722: 'VOLTAGE MONITORING   V12 undervoltage', 30723: 'VOLTAGE MONITORING   V12 overvoltage', 30724: 'VOLTAGE MONITORING   IOLIB_24V', 30725: 'VOLTAGE MONITORING   IOLIB_12V', 32784: 'PSTED   Contactor warning', 32785: 'PSTED   Overheat warning', 32786: 'PSTED   Sensor warning', 32787: 'PSTED   High voltage warning', 32788: 'PSTED   Other warning', 33024: 'PSTED   Offline', 33025: 'PSTED   Hardwsre fault', 33026: 'PSTED   Emergency stop', 33027: 'PSTED   Overheat', 33028: 'PSTED   Phys limits', 33029: 'PSTED   Contactor fault', 33030: 'PSTED   Software and config', 33031: 'PSTED   Precharge fault', 33034: 'PSTED   Other errors', 35072: 'POWER MANAGEMENT   Mass relay pin', 35073: 'POWER MANAGEMENT   BKU turnoff pin', </v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B99">
+    <sortCondition ref="A1:A99"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>